--- a/src/main/resources/Write.xlsx
+++ b/src/main/resources/Write.xlsx
@@ -3,41 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowme/Documents/Hackathon/hclhackathon/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6B73C1-A5C3-4345-99F6-BACB6791B750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E0348-0B56-9644-ACCC-40FD764A99C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{A2F40BA2-0EC0-7A4B-8376-FD12AE8C160A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HclHackathon" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>dummy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>test string</t>
   </si>
@@ -46,11 +29,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,33 +373,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D389851A-50B2-8243-97B3-4C6F0BB65FC9}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
